--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Selplg-Sell.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Selplg-Sell.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.7825415</v>
+        <v>2.1172255</v>
       </c>
       <c r="H2">
-        <v>7.565083</v>
+        <v>4.234451</v>
       </c>
       <c r="I2">
-        <v>0.02134139439091907</v>
+        <v>0.006295392006363395</v>
       </c>
       <c r="J2">
-        <v>0.0143760362842082</v>
+        <v>0.004213039461358209</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.0515145</v>
+        <v>0.06913800000000001</v>
       </c>
       <c r="N2">
-        <v>0.103029</v>
+        <v>0.138276</v>
       </c>
       <c r="O2">
-        <v>0.001471145681204534</v>
+        <v>0.0001995195529840091</v>
       </c>
       <c r="P2">
-        <v>0.0009812449722373931</v>
+        <v>0.000133021882144827</v>
       </c>
       <c r="Q2">
-        <v>0.19485573410175</v>
+        <v>0.146380736619</v>
       </c>
       <c r="R2">
-        <v>0.7794229364069999</v>
+        <v>0.585522946476</v>
       </c>
       <c r="S2">
-        <v>3.139630018908326E-05</v>
+        <v>1.256053798968729E-06</v>
       </c>
       <c r="T2">
-        <v>1.410641332458163E-05</v>
+        <v>5.604264387002968E-07</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.7825415</v>
+        <v>2.1172255</v>
       </c>
       <c r="H3">
-        <v>7.565083</v>
+        <v>4.234451</v>
       </c>
       <c r="I3">
-        <v>0.02134139439091907</v>
+        <v>0.006295392006363395</v>
       </c>
       <c r="J3">
-        <v>0.0143760362842082</v>
+        <v>0.004213039461358209</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.93389433333333</v>
+        <v>76.57257800000001</v>
       </c>
       <c r="N3">
-        <v>50.801683</v>
+        <v>229.717734</v>
       </c>
       <c r="O3">
-        <v>0.4835963760583382</v>
+        <v>0.2209743778152849</v>
       </c>
       <c r="P3">
-        <v>0.4838336393146381</v>
+        <v>0.2209890750291063</v>
       </c>
       <c r="Q3">
-        <v>64.05315807244816</v>
+        <v>162.121414742339</v>
       </c>
       <c r="R3">
-        <v>384.3189484346889</v>
+        <v>972.728488454034</v>
       </c>
       <c r="S3">
-        <v>0.01032062098748021</v>
+        <v>0.00139112033170947</v>
       </c>
       <c r="T3">
-        <v>0.006955609954307738</v>
+        <v>0.000931035693626675</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.7825415</v>
+        <v>2.1172255</v>
       </c>
       <c r="H4">
-        <v>7.565083</v>
+        <v>4.234451</v>
       </c>
       <c r="I4">
-        <v>0.02134139439091907</v>
+        <v>0.006295392006363395</v>
       </c>
       <c r="J4">
-        <v>0.0143760362842082</v>
+        <v>0.004213039461358209</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1015266666666667</v>
+        <v>267.3435366666667</v>
       </c>
       <c r="N4">
-        <v>0.30458</v>
+        <v>802.03061</v>
       </c>
       <c r="O4">
-        <v>0.002899387884843277</v>
+        <v>0.7715042802640716</v>
       </c>
       <c r="P4">
-        <v>0.002900810389735562</v>
+        <v>0.7715555937397933</v>
       </c>
       <c r="Q4">
-        <v>0.3840288300233333</v>
+        <v>566.0265530908517</v>
       </c>
       <c r="R4">
-        <v>2.30417298014</v>
+        <v>3396.15931854511</v>
       </c>
       <c r="S4">
-        <v>6.187698034269303E-05</v>
+        <v>0.004856921878849581</v>
       </c>
       <c r="T4">
-        <v>4.170215541644656E-05</v>
+        <v>0.003250594163057412</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.7825415</v>
+        <v>2.1172255</v>
       </c>
       <c r="H5">
-        <v>7.565083</v>
+        <v>4.234451</v>
       </c>
       <c r="I5">
-        <v>0.02134139439091907</v>
+        <v>0.006295392006363395</v>
       </c>
       <c r="J5">
-        <v>0.0143760362842082</v>
+        <v>0.004213039461358209</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.929651</v>
+        <v>2.537175666666667</v>
       </c>
       <c r="N5">
-        <v>53.78895300000001</v>
+        <v>7.611527</v>
       </c>
       <c r="O5">
-        <v>0.512033090375614</v>
+        <v>0.007321822367659443</v>
       </c>
       <c r="P5">
-        <v>0.5122843053233891</v>
+        <v>0.007322309348955482</v>
       </c>
       <c r="Q5">
-        <v>67.81964898801651</v>
+        <v>5.371773019446167</v>
       </c>
       <c r="R5">
-        <v>406.917893928099</v>
+        <v>32.230638116677</v>
       </c>
       <c r="S5">
-        <v>0.01092750012290709</v>
+        <v>4.609374200537597E-05</v>
       </c>
       <c r="T5">
-        <v>0.007364617761159431</v>
+        <v>3.084917823542158E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>4.713052</v>
       </c>
       <c r="I6">
-        <v>0.008863802421106719</v>
+        <v>0.004671287948366863</v>
       </c>
       <c r="J6">
-        <v>0.008956280659625284</v>
+        <v>0.004689220411201648</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>0.5</v>
       </c>
       <c r="M6">
-        <v>0.0515145</v>
+        <v>0.06913800000000001</v>
       </c>
       <c r="N6">
-        <v>0.103029</v>
+        <v>0.138276</v>
       </c>
       <c r="O6">
-        <v>0.001471145681204534</v>
+        <v>0.0001995195529840091</v>
       </c>
       <c r="P6">
-        <v>0.0009812449722373931</v>
+        <v>0.000133021882144827</v>
       </c>
       <c r="Q6">
-        <v>0.080930172418</v>
+        <v>0.108616996392</v>
       </c>
       <c r="R6">
-        <v>0.485581034508</v>
+        <v>0.6517019783520001</v>
       </c>
       <c r="S6">
-        <v>1.303994465086144E-05</v>
+        <v>9.320132833177454E-07</v>
       </c>
       <c r="T6">
-        <v>8.788305367204313E-06</v>
+        <v>6.237689248899826E-07</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>4.713052</v>
       </c>
       <c r="I7">
-        <v>0.008863802421106719</v>
+        <v>0.004671287948366863</v>
       </c>
       <c r="J7">
-        <v>0.008956280659625284</v>
+        <v>0.004689220411201648</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.93389433333333</v>
+        <v>76.57257800000001</v>
       </c>
       <c r="N7">
-        <v>50.801683</v>
+        <v>229.717734</v>
       </c>
       <c r="O7">
-        <v>0.4835963760583382</v>
+        <v>0.2209743778152849</v>
       </c>
       <c r="P7">
-        <v>0.4838336393146381</v>
+        <v>0.2209890750291063</v>
       </c>
       <c r="Q7">
-        <v>26.60344151850178</v>
+        <v>120.2968472960187</v>
       </c>
       <c r="R7">
-        <v>239.430973666516</v>
+        <v>1082.671625664168</v>
       </c>
       <c r="S7">
-        <v>0.004286502728944334</v>
+        <v>0.001032234947986406</v>
       </c>
       <c r="T7">
-        <v>0.004333349866269809</v>
+        <v>0.001036266481279058</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>4.713052</v>
       </c>
       <c r="I8">
-        <v>0.008863802421106719</v>
+        <v>0.004671287948366863</v>
       </c>
       <c r="J8">
-        <v>0.008956280659625284</v>
+        <v>0.004689220411201648</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1015266666666667</v>
+        <v>267.3435366666667</v>
       </c>
       <c r="N8">
-        <v>0.30458</v>
+        <v>802.03061</v>
       </c>
       <c r="O8">
-        <v>0.002899387884843277</v>
+        <v>0.7715042802640716</v>
       </c>
       <c r="P8">
-        <v>0.002900810389735562</v>
+        <v>0.7715555937397933</v>
       </c>
       <c r="Q8">
-        <v>0.1595001531288889</v>
+        <v>420.001330057969</v>
       </c>
       <c r="R8">
-        <v>1.43550137816</v>
+        <v>3780.01197052172</v>
       </c>
       <c r="S8">
-        <v>2.569960135340133E-05</v>
+        <v>0.003603918646511008</v>
       </c>
       <c r="T8">
-        <v>2.59804719908287E-05</v>
+        <v>0.003617994238541446</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>4.713052</v>
       </c>
       <c r="I9">
-        <v>0.008863802421106719</v>
+        <v>0.004671287948366863</v>
       </c>
       <c r="J9">
-        <v>0.008956280659625284</v>
+        <v>0.004689220411201648</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>17.929651</v>
+        <v>2.537175666666667</v>
       </c>
       <c r="N9">
-        <v>53.78895300000001</v>
+        <v>7.611527</v>
       </c>
       <c r="O9">
-        <v>0.512033090375614</v>
+        <v>0.007321822367659443</v>
       </c>
       <c r="P9">
-        <v>0.5122843053233891</v>
+        <v>0.007322309348955482</v>
       </c>
       <c r="Q9">
-        <v>28.16779250161734</v>
+        <v>3.985946950044889</v>
       </c>
       <c r="R9">
-        <v>253.510132514556</v>
+        <v>35.873522550404</v>
       </c>
       <c r="S9">
-        <v>0.004538560146158123</v>
+        <v>3.420234058613049E-05</v>
       </c>
       <c r="T9">
-        <v>0.004588162015997444</v>
+        <v>3.433592245625469E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>75.41654966666665</v>
+        <v>75.40439600000001</v>
       </c>
       <c r="H10">
-        <v>226.249649</v>
+        <v>226.213188</v>
       </c>
       <c r="I10">
-        <v>0.4255060598908616</v>
+        <v>0.2242086314485916</v>
       </c>
       <c r="J10">
-        <v>0.4299454696416904</v>
+        <v>0.2250693390296979</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1057,28 +1057,28 @@
         <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.0515145</v>
+        <v>0.06913800000000001</v>
       </c>
       <c r="N10">
-        <v>0.103029</v>
+        <v>0.138276</v>
       </c>
       <c r="O10">
-        <v>0.001471145681204534</v>
+        <v>0.0001995195529840091</v>
       </c>
       <c r="P10">
-        <v>0.0009812449722373931</v>
+        <v>0.000133021882144827</v>
       </c>
       <c r="Q10">
-        <v>3.885045847803499</v>
+        <v>5.213309130648001</v>
       </c>
       <c r="R10">
-        <v>23.310275086821</v>
+        <v>31.279854783888</v>
       </c>
       <c r="S10">
-        <v>0.0006259814023347989</v>
+        <v>4.473400592177943E-05</v>
       </c>
       <c r="T10">
-        <v>0.0004218818304221534</v>
+        <v>2.993914709082257E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>75.41654966666665</v>
+        <v>75.40439600000001</v>
       </c>
       <c r="H11">
-        <v>226.249649</v>
+        <v>226.213188</v>
       </c>
       <c r="I11">
-        <v>0.4255060598908616</v>
+        <v>0.2242086314485916</v>
       </c>
       <c r="J11">
-        <v>0.4299454696416904</v>
+        <v>0.2250693390296979</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.93389433333333</v>
+        <v>76.57257800000001</v>
       </c>
       <c r="N11">
-        <v>50.801683</v>
+        <v>229.717734</v>
       </c>
       <c r="O11">
-        <v>0.4835963760583382</v>
+        <v>0.2209743778152849</v>
       </c>
       <c r="P11">
-        <v>0.4838336393146381</v>
+        <v>0.2209890750291063</v>
       </c>
       <c r="Q11">
-        <v>1277.095883039918</v>
+        <v>5773.908994252889</v>
       </c>
       <c r="R11">
-        <v>11493.86294735926</v>
+        <v>51965.18094827599</v>
       </c>
       <c r="S11">
-        <v>0.2057731885540829</v>
+        <v>0.04954436283516905</v>
       </c>
       <c r="T11">
-        <v>0.2080220812835803</v>
+        <v>0.04973786504958528</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>75.41654966666665</v>
+        <v>75.40439600000001</v>
       </c>
       <c r="H12">
-        <v>226.249649</v>
+        <v>226.213188</v>
       </c>
       <c r="I12">
-        <v>0.4255060598908616</v>
+        <v>0.2242086314485916</v>
       </c>
       <c r="J12">
-        <v>0.4299454696416904</v>
+        <v>0.2250693390296979</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1015266666666667</v>
+        <v>267.3435366666667</v>
       </c>
       <c r="N12">
-        <v>0.30458</v>
+        <v>802.03061</v>
       </c>
       <c r="O12">
-        <v>0.002899387884843277</v>
+        <v>0.7715042802640716</v>
       </c>
       <c r="P12">
-        <v>0.002900810389735562</v>
+        <v>0.7715555937397933</v>
       </c>
       <c r="Q12">
-        <v>7.656790899157777</v>
+        <v>20158.87790685386</v>
       </c>
       <c r="R12">
-        <v>68.91111809242</v>
+        <v>181429.9011616847</v>
       </c>
       <c r="S12">
-        <v>0.001233707114974962</v>
+        <v>0.1729779188347381</v>
       </c>
       <c r="T12">
-        <v>0.001247190285356351</v>
+        <v>0.1736535075076814</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>75.41654966666665</v>
+        <v>75.40439600000001</v>
       </c>
       <c r="H13">
-        <v>226.249649</v>
+        <v>226.213188</v>
       </c>
       <c r="I13">
-        <v>0.4255060598908616</v>
+        <v>0.2242086314485916</v>
       </c>
       <c r="J13">
-        <v>0.4299454696416904</v>
+        <v>0.2250693390296979</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.929651</v>
+        <v>2.537175666666667</v>
       </c>
       <c r="N13">
-        <v>53.78895300000001</v>
+        <v>7.611527</v>
       </c>
       <c r="O13">
-        <v>0.512033090375614</v>
+        <v>0.007321822367659443</v>
       </c>
       <c r="P13">
-        <v>0.5122843053233891</v>
+        <v>0.007322309348955482</v>
       </c>
       <c r="Q13">
-        <v>1352.1924151475</v>
+        <v>191.3141986908973</v>
       </c>
       <c r="R13">
-        <v>12169.7317363275</v>
+        <v>1721.827788218076</v>
       </c>
       <c r="S13">
-        <v>0.2178731828194689</v>
+        <v>0.00164161577276261</v>
       </c>
       <c r="T13">
-        <v>0.2202543162423317</v>
+        <v>0.001648027325340388</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.7077325</v>
+        <v>1.7411535</v>
       </c>
       <c r="H14">
-        <v>3.415465</v>
+        <v>3.482307</v>
       </c>
       <c r="I14">
-        <v>0.009635160062801743</v>
+        <v>0.005177173534775417</v>
       </c>
       <c r="J14">
-        <v>0.006490457377327274</v>
+        <v>0.003464698684094803</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1305,28 +1305,28 @@
         <v>0.5</v>
       </c>
       <c r="M14">
-        <v>0.0515145</v>
+        <v>0.06913800000000001</v>
       </c>
       <c r="N14">
-        <v>0.103029</v>
+        <v>0.138276</v>
       </c>
       <c r="O14">
-        <v>0.001471145681204534</v>
+        <v>0.0001995195529840091</v>
       </c>
       <c r="P14">
-        <v>0.0009812449722373931</v>
+        <v>0.000133021882144827</v>
       </c>
       <c r="Q14">
-        <v>0.08797298587124999</v>
+        <v>0.120379870683</v>
       </c>
       <c r="R14">
-        <v>0.351891943485</v>
+        <v>0.4815194827320001</v>
       </c>
       <c r="S14">
-        <v>1.417472411410519E-05</v>
+        <v>1.032947349379033E-06</v>
       </c>
       <c r="T14">
-        <v>6.368728669023484E-06</v>
+        <v>4.608807400229959E-07</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.7077325</v>
+        <v>1.7411535</v>
       </c>
       <c r="H15">
-        <v>3.415465</v>
+        <v>3.482307</v>
       </c>
       <c r="I15">
-        <v>0.009635160062801743</v>
+        <v>0.005177173534775417</v>
       </c>
       <c r="J15">
-        <v>0.006490457377327274</v>
+        <v>0.003464698684094803</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>16.93389433333333</v>
+        <v>76.57257800000001</v>
       </c>
       <c r="N15">
-        <v>50.801683</v>
+        <v>229.717734</v>
       </c>
       <c r="O15">
-        <v>0.4835963760583382</v>
+        <v>0.2209743778152849</v>
       </c>
       <c r="P15">
-        <v>0.4838336393146381</v>
+        <v>0.2209890750291063</v>
       </c>
       <c r="Q15">
-        <v>28.91856170459916</v>
+        <v>133.324612188723</v>
       </c>
       <c r="R15">
-        <v>173.511370227595</v>
+        <v>799.9476731323381</v>
       </c>
       <c r="S15">
-        <v>0.004659528489112954</v>
+        <v>0.001144022700688757</v>
       </c>
       <c r="T15">
-        <v>0.003140301613688796</v>
+        <v>0.0007656605574526724</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.7077325</v>
+        <v>1.7411535</v>
       </c>
       <c r="H16">
-        <v>3.415465</v>
+        <v>3.482307</v>
       </c>
       <c r="I16">
-        <v>0.009635160062801743</v>
+        <v>0.005177173534775417</v>
       </c>
       <c r="J16">
-        <v>0.006490457377327274</v>
+        <v>0.003464698684094803</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.1015266666666667</v>
+        <v>267.3435366666667</v>
       </c>
       <c r="N16">
-        <v>0.30458</v>
+        <v>802.03061</v>
       </c>
       <c r="O16">
-        <v>0.002899387884843277</v>
+        <v>0.7715042802640716</v>
       </c>
       <c r="P16">
-        <v>0.002900810389735562</v>
+        <v>0.7715555937397933</v>
       </c>
       <c r="Q16">
-        <v>0.1733803882833333</v>
+        <v>465.4861345695451</v>
       </c>
       <c r="R16">
-        <v>1.0402823297</v>
+        <v>2792.91680741727</v>
       </c>
       <c r="S16">
-        <v>2.793606635461317E-05</v>
+        <v>0.003994211541749107</v>
       </c>
       <c r="T16">
-        <v>1.882758619428678E-05</v>
+        <v>0.002673207650336246</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.7077325</v>
+        <v>1.7411535</v>
       </c>
       <c r="H17">
-        <v>3.415465</v>
+        <v>3.482307</v>
       </c>
       <c r="I17">
-        <v>0.009635160062801743</v>
+        <v>0.005177173534775417</v>
       </c>
       <c r="J17">
-        <v>0.006490457377327274</v>
+        <v>0.003464698684094803</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.929651</v>
+        <v>2.537175666666667</v>
       </c>
       <c r="N17">
-        <v>53.78895300000001</v>
+        <v>7.611527</v>
       </c>
       <c r="O17">
-        <v>0.512033090375614</v>
+        <v>0.007321822367659443</v>
       </c>
       <c r="P17">
-        <v>0.5122843053233891</v>
+        <v>0.007322309348955482</v>
       </c>
       <c r="Q17">
-        <v>30.6190477263575</v>
+        <v>4.4176122921315</v>
       </c>
       <c r="R17">
-        <v>183.714286358145</v>
+        <v>26.505673752789</v>
       </c>
       <c r="S17">
-        <v>0.004933520783220072</v>
+        <v>3.790634498817315E-05</v>
       </c>
       <c r="T17">
-        <v>0.003324959448775169</v>
+        <v>2.536959556586113E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.559279333333333</v>
+        <v>197.2895866666667</v>
       </c>
       <c r="H18">
-        <v>7.677838</v>
+        <v>591.86876</v>
       </c>
       <c r="I18">
-        <v>0.01443965376432621</v>
+        <v>0.586623997698909</v>
       </c>
       <c r="J18">
-        <v>0.01459030623620025</v>
+        <v>0.5888759704209946</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1553,28 +1553,28 @@
         <v>0.5</v>
       </c>
       <c r="M18">
-        <v>0.0515145</v>
+        <v>0.06913800000000001</v>
       </c>
       <c r="N18">
-        <v>0.103029</v>
+        <v>0.138276</v>
       </c>
       <c r="O18">
-        <v>0.001471145681204534</v>
+        <v>0.0001995195529840091</v>
       </c>
       <c r="P18">
-        <v>0.0009812449722373931</v>
+        <v>0.000133021882144827</v>
       </c>
       <c r="Q18">
-        <v>0.131839995217</v>
+        <v>13.64020744296</v>
       </c>
       <c r="R18">
-        <v>0.791039971302</v>
+        <v>81.84124465776</v>
       </c>
       <c r="S18">
-        <v>2.124283427347729E-05</v>
+        <v>0.0001170429577905787</v>
       </c>
       <c r="T18">
-        <v>1.431666463767538E-05</v>
+        <v>7.833338993526215E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.559279333333333</v>
+        <v>197.2895866666667</v>
       </c>
       <c r="H19">
-        <v>7.677838</v>
+        <v>591.86876</v>
       </c>
       <c r="I19">
-        <v>0.01443965376432621</v>
+        <v>0.586623997698909</v>
       </c>
       <c r="J19">
-        <v>0.01459030623620025</v>
+        <v>0.5888759704209946</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>16.93389433333333</v>
+        <v>76.57257800000001</v>
       </c>
       <c r="N19">
-        <v>50.801683</v>
+        <v>229.717734</v>
       </c>
       <c r="O19">
-        <v>0.4835963760583382</v>
+        <v>0.2209743778152849</v>
       </c>
       <c r="P19">
-        <v>0.4838336393146381</v>
+        <v>0.2209890750291063</v>
       </c>
       <c r="Q19">
-        <v>43.33856580015044</v>
+        <v>15106.97226362109</v>
       </c>
       <c r="R19">
-        <v>390.047092201354</v>
+        <v>135962.7503725898</v>
       </c>
       <c r="S19">
-        <v>0.006982964231965296</v>
+        <v>0.1296288729030316</v>
       </c>
       <c r="T19">
-        <v>0.007059280964975827</v>
+        <v>0.130135156010203</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.559279333333333</v>
+        <v>197.2895866666667</v>
       </c>
       <c r="H20">
-        <v>7.677838</v>
+        <v>591.86876</v>
       </c>
       <c r="I20">
-        <v>0.01443965376432621</v>
+        <v>0.586623997698909</v>
       </c>
       <c r="J20">
-        <v>0.01459030623620025</v>
+        <v>0.5888759704209946</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1015266666666667</v>
+        <v>267.3435366666667</v>
       </c>
       <c r="N20">
-        <v>0.30458</v>
+        <v>802.03061</v>
       </c>
       <c r="O20">
-        <v>0.002899387884843277</v>
+        <v>0.7715042802640716</v>
       </c>
       <c r="P20">
-        <v>0.002900810389735562</v>
+        <v>0.7715555937397933</v>
       </c>
       <c r="Q20">
-        <v>0.2598350997822222</v>
+        <v>52744.09584697151</v>
       </c>
       <c r="R20">
-        <v>2.33851589804</v>
+        <v>474696.8626227436</v>
       </c>
       <c r="S20">
-        <v>4.186615718561904E-05</v>
+        <v>0.4525829251303292</v>
       </c>
       <c r="T20">
-        <v>4.232371191939325E-05</v>
+        <v>0.4543505489972675</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.559279333333333</v>
+        <v>197.2895866666667</v>
       </c>
       <c r="H21">
-        <v>7.677838</v>
+        <v>591.86876</v>
       </c>
       <c r="I21">
-        <v>0.01443965376432621</v>
+        <v>0.586623997698909</v>
       </c>
       <c r="J21">
-        <v>0.01459030623620025</v>
+        <v>0.5888759704209946</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>17.929651</v>
+        <v>2.537175666666667</v>
       </c>
       <c r="N21">
-        <v>53.78895300000001</v>
+        <v>7.611527</v>
       </c>
       <c r="O21">
-        <v>0.512033090375614</v>
+        <v>0.007321822367659443</v>
       </c>
       <c r="P21">
-        <v>0.5122843053233891</v>
+        <v>0.007322309348955482</v>
       </c>
       <c r="Q21">
-        <v>45.88698525817934</v>
+        <v>500.5583385773911</v>
       </c>
       <c r="R21">
-        <v>412.9828673236141</v>
+        <v>4505.025047196519</v>
       </c>
       <c r="S21">
-        <v>0.007393580540901816</v>
+        <v>0.004295156707757674</v>
       </c>
       <c r="T21">
-        <v>0.007474384894667357</v>
+        <v>0.00431193202358888</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>92.20254033333333</v>
+        <v>58.19014966666668</v>
       </c>
       <c r="H22">
-        <v>276.607621</v>
+        <v>174.570449</v>
       </c>
       <c r="I22">
-        <v>0.5202139294699846</v>
+        <v>0.1730235173629937</v>
       </c>
       <c r="J22">
-        <v>0.5256414498009485</v>
+        <v>0.1736877319926528</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1801,28 +1801,28 @@
         <v>0.5</v>
       </c>
       <c r="M22">
-        <v>0.0515145</v>
+        <v>0.06913800000000001</v>
       </c>
       <c r="N22">
-        <v>0.103029</v>
+        <v>0.138276</v>
       </c>
       <c r="O22">
-        <v>0.001471145681204534</v>
+        <v>0.0001995195529840091</v>
       </c>
       <c r="P22">
-        <v>0.0009812449722373931</v>
+        <v>0.000133021882144827</v>
       </c>
       <c r="Q22">
-        <v>4.7497677640015</v>
+        <v>4.023150567654001</v>
       </c>
       <c r="R22">
-        <v>28.498606584009</v>
+        <v>24.138903405924</v>
       </c>
       <c r="S22">
-        <v>0.0007653104756422079</v>
+        <v>3.452157483998543E-05</v>
       </c>
       <c r="T22">
-        <v>0.0005157830298167548</v>
+        <v>2.310426901512895E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>92.20254033333333</v>
+        <v>58.19014966666668</v>
       </c>
       <c r="H23">
-        <v>276.607621</v>
+        <v>174.570449</v>
       </c>
       <c r="I23">
-        <v>0.5202139294699846</v>
+        <v>0.1730235173629937</v>
       </c>
       <c r="J23">
-        <v>0.5256414498009485</v>
+        <v>0.1736877319926528</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>16.93389433333333</v>
+        <v>76.57257800000001</v>
       </c>
       <c r="N23">
-        <v>50.801683</v>
+        <v>229.717734</v>
       </c>
       <c r="O23">
-        <v>0.4835963760583382</v>
+        <v>0.2209743778152849</v>
       </c>
       <c r="P23">
-        <v>0.4838336393146381</v>
+        <v>0.2209890750291063</v>
       </c>
       <c r="Q23">
-        <v>1561.348075269571</v>
+        <v>4455.769774182509</v>
       </c>
       <c r="R23">
-        <v>14052.13267742614</v>
+        <v>40101.92796764257</v>
       </c>
       <c r="S23">
-        <v>0.2515735710667525</v>
+        <v>0.03823376409669967</v>
       </c>
       <c r="T23">
-        <v>0.2543230156318156</v>
+        <v>0.03838309123695967</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>92.20254033333333</v>
+        <v>58.19014966666668</v>
       </c>
       <c r="H24">
-        <v>276.607621</v>
+        <v>174.570449</v>
       </c>
       <c r="I24">
-        <v>0.5202139294699846</v>
+        <v>0.1730235173629937</v>
       </c>
       <c r="J24">
-        <v>0.5256414498009485</v>
+        <v>0.1736877319926528</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.1015266666666667</v>
+        <v>267.3435366666667</v>
       </c>
       <c r="N24">
-        <v>0.30458</v>
+        <v>802.03061</v>
       </c>
       <c r="O24">
-        <v>0.002899387884843277</v>
+        <v>0.7715042802640716</v>
       </c>
       <c r="P24">
-        <v>0.002900810389735562</v>
+        <v>0.7715555937397933</v>
       </c>
       <c r="Q24">
-        <v>9.361016578242221</v>
+        <v>15556.76041104932</v>
       </c>
       <c r="R24">
-        <v>84.24914920418</v>
+        <v>140010.8436994439</v>
       </c>
       <c r="S24">
-        <v>0.001508301964631989</v>
+        <v>0.1334883842318945</v>
       </c>
       <c r="T24">
-        <v>0.001524786178858255</v>
+        <v>0.1340097411829093</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>92.20254033333333</v>
+        <v>58.19014966666668</v>
       </c>
       <c r="H25">
-        <v>276.607621</v>
+        <v>174.570449</v>
       </c>
       <c r="I25">
-        <v>0.5202139294699846</v>
+        <v>0.1730235173629937</v>
       </c>
       <c r="J25">
-        <v>0.5256414498009485</v>
+        <v>0.1736877319926528</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.929651</v>
+        <v>2.537175666666667</v>
       </c>
       <c r="N25">
-        <v>53.78895300000001</v>
+        <v>7.611527</v>
       </c>
       <c r="O25">
-        <v>0.512033090375614</v>
+        <v>0.007321822367659443</v>
       </c>
       <c r="P25">
-        <v>0.5122843053233891</v>
+        <v>0.007322309348955482</v>
       </c>
       <c r="Q25">
-        <v>1653.159369490091</v>
+        <v>147.6386317739581</v>
       </c>
       <c r="R25">
-        <v>14878.43432541082</v>
+        <v>1328.747685965623</v>
       </c>
       <c r="S25">
-        <v>0.2663667459629579</v>
+        <v>0.001266847459559479</v>
       </c>
       <c r="T25">
-        <v>0.269277864960458</v>
+        <v>0.001271795303768676</v>
       </c>
     </row>
   </sheetData>
